--- a/日本版コアインボイス/EN16931-1_Annex_A.xlsx
+++ b/日本版コアインボイス/EN16931-1_Annex_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB712228-A336-7C4C-B81A-55F642F3930C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3CF59-35E5-7C4E-BEBF-68EBB1886448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="100" windowWidth="24940" windowHeight="15360" activeTab="6" xr2:uid="{12D2A6F6-74CB-D142-9378-ACF39F2C2E77}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Example 6" sheetId="6" r:id="rId6"/>
     <sheet name="Example 7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="155">
   <si>
     <t>Invoice line identifier</t>
     <phoneticPr fontId="2"/>
@@ -651,6 +651,14 @@
   </si>
   <si>
     <t>Reason C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EUR, "Invoice total VAT amount" - "Paid amount"(see BR-CO-16)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EUR, ""VAT category taxable amount" x ("VAT category rate" / 100), rounded to two decimals (see BR-C0-17)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -660,9 +668,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -809,22 +817,22 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -839,10 +847,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,28 +901,28 @@
     <xf numFmtId="40" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
@@ -923,7 +931,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,7 +940,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4250,8 +4258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0C6C4-7C93-B342-B7F1-F7DCFFD93203}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4661,7 +4669,7 @@
         <v>-112.5</v>
       </c>
       <c r="P23" s="46" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4674,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4DED70-D670-CD44-96A6-7C40BA6DC415}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -5289,7 +5297,7 @@
         <v>70.25</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="8:11">
